--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Plxna4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H2">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I2">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J2">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65585404625546</v>
+        <v>3.005984666666667</v>
       </c>
       <c r="N2">
-        <v>2.65585404625546</v>
+        <v>9.017954</v>
       </c>
       <c r="O2">
-        <v>0.6012391320833181</v>
+        <v>0.5024819575990099</v>
       </c>
       <c r="P2">
-        <v>0.6012391320833181</v>
+        <v>0.5387571684551946</v>
       </c>
       <c r="Q2">
-        <v>132.7329530072173</v>
+        <v>162.0087600317951</v>
       </c>
       <c r="R2">
-        <v>132.7329530072173</v>
+        <v>1458.078840286156</v>
       </c>
       <c r="S2">
-        <v>0.4766528333363343</v>
+        <v>0.381371530672739</v>
       </c>
       <c r="T2">
-        <v>0.4766528333363343</v>
+        <v>0.4400553161419229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H3">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I3">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J3">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18529764527184</v>
+        <v>1.246848333333333</v>
       </c>
       <c r="N3">
-        <v>1.18529764527184</v>
+        <v>3.740545</v>
       </c>
       <c r="O3">
-        <v>0.2683307572976071</v>
+        <v>0.2084238147685372</v>
       </c>
       <c r="P3">
-        <v>0.2683307572976071</v>
+        <v>0.2234703606471308</v>
       </c>
       <c r="Q3">
-        <v>59.23821637384493</v>
+        <v>67.19939548295889</v>
       </c>
       <c r="R3">
-        <v>59.23821637384493</v>
+        <v>604.7945593466301</v>
       </c>
       <c r="S3">
-        <v>0.2127283619980088</v>
+        <v>0.158188583818487</v>
       </c>
       <c r="T3">
-        <v>0.2127283619980088</v>
+        <v>0.182529952195153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H4">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I4">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J4">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0875817098992583</v>
+        <v>0.2670836666666667</v>
       </c>
       <c r="N4">
-        <v>0.0875817098992583</v>
+        <v>0.801251</v>
       </c>
       <c r="O4">
-        <v>0.01982697479947963</v>
+        <v>0.0446458443908856</v>
       </c>
       <c r="P4">
-        <v>0.01982697479947963</v>
+        <v>0.04786892015438238</v>
       </c>
       <c r="Q4">
-        <v>4.377115150864663</v>
+        <v>14.39458229485711</v>
       </c>
       <c r="R4">
-        <v>4.377115150864663</v>
+        <v>129.551240653714</v>
       </c>
       <c r="S4">
-        <v>0.01571851067297201</v>
+        <v>0.03388510523817961</v>
       </c>
       <c r="T4">
-        <v>0.01571851067297201</v>
+        <v>0.03909919723631679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.9775027902456</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H5">
-        <v>49.9775027902456</v>
+        <v>161.686214</v>
       </c>
       <c r="I5">
-        <v>0.7927841151734631</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J5">
-        <v>0.7927841151734631</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.488567310609296</v>
+        <v>0.2539746666666667</v>
       </c>
       <c r="N5">
-        <v>0.488567310609296</v>
+        <v>0.761924</v>
       </c>
       <c r="O5">
-        <v>0.1106031358195952</v>
+        <v>0.04245453714464147</v>
       </c>
       <c r="P5">
-        <v>0.1106031358195952</v>
+        <v>0.04551941790987798</v>
       </c>
       <c r="Q5">
-        <v>24.41737412919888</v>
+        <v>13.68806743508178</v>
       </c>
       <c r="R5">
-        <v>24.41737412919888</v>
+        <v>123.192606915736</v>
       </c>
       <c r="S5">
-        <v>0.08768440916614811</v>
+        <v>0.03222195656978246</v>
       </c>
       <c r="T5">
-        <v>0.08768440916614811</v>
+        <v>0.03718013051476183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44556156856021</v>
+        <v>53.89540466666667</v>
       </c>
       <c r="H6">
-        <v>1.44556156856021</v>
+        <v>161.686214</v>
       </c>
       <c r="I6">
-        <v>0.02293068250867957</v>
+        <v>0.7589755709737953</v>
       </c>
       <c r="J6">
-        <v>0.02293068250867957</v>
+        <v>0.8167971433284414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.65585404625546</v>
+        <v>1.2083825</v>
       </c>
       <c r="N6">
-        <v>2.65585404625546</v>
+        <v>2.416765</v>
       </c>
       <c r="O6">
-        <v>0.6012391320833181</v>
+        <v>0.2019938460969258</v>
       </c>
       <c r="P6">
-        <v>0.6012391320833181</v>
+        <v>0.1443841328334141</v>
       </c>
       <c r="Q6">
-        <v>3.839200540972023</v>
+        <v>65.12626382961834</v>
       </c>
       <c r="R6">
-        <v>3.839200540972023</v>
+        <v>390.75758297771</v>
       </c>
       <c r="S6">
-        <v>0.01378682364959663</v>
+        <v>0.1533083946746072</v>
       </c>
       <c r="T6">
-        <v>0.01378682364959663</v>
+        <v>0.1179325472402869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.44556156856021</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H7">
-        <v>1.44556156856021</v>
+        <v>5.753305</v>
       </c>
       <c r="I7">
-        <v>0.02293068250867957</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J7">
-        <v>0.02293068250867957</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.18529764527184</v>
+        <v>3.005984666666667</v>
       </c>
       <c r="N7">
-        <v>1.18529764527184</v>
+        <v>9.017954</v>
       </c>
       <c r="O7">
-        <v>0.2683307572976071</v>
+        <v>0.5024819575990099</v>
       </c>
       <c r="P7">
-        <v>0.2683307572976071</v>
+        <v>0.5387571684551946</v>
       </c>
       <c r="Q7">
-        <v>1.713420723309884</v>
+        <v>5.764782204218888</v>
       </c>
       <c r="R7">
-        <v>1.713420723309884</v>
+        <v>51.88303983797</v>
       </c>
       <c r="S7">
-        <v>0.006153007402904984</v>
+        <v>0.01357040083996971</v>
       </c>
       <c r="T7">
-        <v>0.006153007402904984</v>
+        <v>0.01565855485141056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.44556156856021</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H8">
-        <v>1.44556156856021</v>
+        <v>5.753305</v>
       </c>
       <c r="I8">
-        <v>0.02293068250867957</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J8">
-        <v>0.02293068250867957</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0875817098992583</v>
+        <v>1.246848333333333</v>
       </c>
       <c r="N8">
-        <v>0.0875817098992583</v>
+        <v>3.740545</v>
       </c>
       <c r="O8">
-        <v>0.01982697479947963</v>
+        <v>0.2084238147685372</v>
       </c>
       <c r="P8">
-        <v>0.01982697479947963</v>
+        <v>0.2234703606471308</v>
       </c>
       <c r="Q8">
-        <v>0.1266047539391571</v>
+        <v>2.391166250136111</v>
       </c>
       <c r="R8">
-        <v>0.1266047539391571</v>
+        <v>21.520496251225</v>
       </c>
       <c r="S8">
-        <v>0.0004546460642344583</v>
+        <v>0.00562884829640343</v>
       </c>
       <c r="T8">
-        <v>0.0004546460642344583</v>
+        <v>0.006494990887807757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.44556156856021</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H9">
-        <v>1.44556156856021</v>
+        <v>5.753305</v>
       </c>
       <c r="I9">
-        <v>0.02293068250867957</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J9">
-        <v>0.02293068250867957</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.488567310609296</v>
+        <v>0.2670836666666667</v>
       </c>
       <c r="N9">
-        <v>0.488567310609296</v>
+        <v>0.801251</v>
       </c>
       <c r="O9">
-        <v>0.1106031358195952</v>
+        <v>0.0446458443908856</v>
       </c>
       <c r="P9">
-        <v>0.1106031358195952</v>
+        <v>0.04786892015438238</v>
       </c>
       <c r="Q9">
-        <v>0.7062541278716171</v>
+        <v>0.5122045982838889</v>
       </c>
       <c r="R9">
-        <v>0.7062541278716171</v>
+        <v>4.609841384555001</v>
       </c>
       <c r="S9">
-        <v>0.002536205391943502</v>
+        <v>0.001205738823177249</v>
       </c>
       <c r="T9">
-        <v>0.002536205391943502</v>
+        <v>0.001391272647126783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6174303152208</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H10">
-        <v>11.6174303152208</v>
+        <v>5.753305</v>
       </c>
       <c r="I10">
-        <v>0.1842852023178573</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J10">
-        <v>0.1842852023178573</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.65585404625546</v>
+        <v>0.2539746666666667</v>
       </c>
       <c r="N10">
-        <v>2.65585404625546</v>
+        <v>0.761924</v>
       </c>
       <c r="O10">
-        <v>0.6012391320833181</v>
+        <v>0.04245453714464147</v>
       </c>
       <c r="P10">
-        <v>0.6012391320833181</v>
+        <v>0.04551941790987798</v>
       </c>
       <c r="Q10">
-        <v>30.85419930977001</v>
+        <v>0.4870645732022222</v>
       </c>
       <c r="R10">
-        <v>30.85419930977001</v>
+        <v>4.38358115882</v>
       </c>
       <c r="S10">
-        <v>0.1107994750973872</v>
+        <v>0.00114655875263869</v>
       </c>
       <c r="T10">
-        <v>0.1107994750973872</v>
+        <v>0.001322986205807453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6174303152208</v>
+        <v>1.917768333333333</v>
       </c>
       <c r="H11">
-        <v>11.6174303152208</v>
+        <v>5.753305</v>
       </c>
       <c r="I11">
-        <v>0.1842852023178573</v>
+        <v>0.02700674250039271</v>
       </c>
       <c r="J11">
-        <v>0.1842852023178573</v>
+        <v>0.02906421625221084</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.18529764527184</v>
+        <v>1.2083825</v>
       </c>
       <c r="N11">
-        <v>1.18529764527184</v>
+        <v>2.416765</v>
       </c>
       <c r="O11">
-        <v>0.2683307572976071</v>
+        <v>0.2019938460969258</v>
       </c>
       <c r="P11">
-        <v>0.2683307572976071</v>
+        <v>0.1443841328334141</v>
       </c>
       <c r="Q11">
-        <v>13.7701127967409</v>
+        <v>2.317397693054167</v>
       </c>
       <c r="R11">
-        <v>13.7701127967409</v>
+        <v>13.904386158325</v>
       </c>
       <c r="S11">
-        <v>0.0494493878966934</v>
+        <v>0.005455195788203631</v>
       </c>
       <c r="T11">
-        <v>0.0494493878966934</v>
+        <v>0.004196411660058284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>11.6174303152208</v>
+        <v>0.03280966666666667</v>
       </c>
       <c r="H12">
-        <v>11.6174303152208</v>
+        <v>0.098429</v>
       </c>
       <c r="I12">
-        <v>0.1842852023178573</v>
+        <v>0.000462038195015066</v>
       </c>
       <c r="J12">
-        <v>0.1842852023178573</v>
+        <v>0.0004972379773867126</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0875817098992583</v>
+        <v>3.005984666666667</v>
       </c>
       <c r="N12">
-        <v>0.0875817098992583</v>
+        <v>9.017954</v>
       </c>
       <c r="O12">
-        <v>0.01982697479947963</v>
+        <v>0.5024819575990099</v>
       </c>
       <c r="P12">
-        <v>0.01982697479947963</v>
+        <v>0.5387571684551946</v>
       </c>
       <c r="Q12">
-        <v>1.017474411642517</v>
+        <v>0.09862535491844444</v>
       </c>
       <c r="R12">
-        <v>1.017474411642517</v>
+        <v>0.887628194266</v>
       </c>
       <c r="S12">
-        <v>0.003653818062273162</v>
+        <v>0.0002321658567166835</v>
       </c>
       <c r="T12">
-        <v>0.003653818062273162</v>
+        <v>0.0002678905247452533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.098429</v>
+      </c>
+      <c r="I13">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J13">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.246848333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.740545</v>
+      </c>
+      <c r="O13">
+        <v>0.2084238147685372</v>
+      </c>
+      <c r="P13">
+        <v>0.2234703606471308</v>
+      </c>
+      <c r="Q13">
+        <v>0.04090867820055556</v>
+      </c>
+      <c r="R13">
+        <v>0.368178103805</v>
+      </c>
+      <c r="S13">
+        <v>9.629976317380937E-05</v>
+      </c>
+      <c r="T13">
+        <v>0.0001111179501340585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.098429</v>
+      </c>
+      <c r="I14">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J14">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2670836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.801251</v>
+      </c>
+      <c r="O14">
+        <v>0.0446458443908856</v>
+      </c>
+      <c r="P14">
+        <v>0.04786892015438238</v>
+      </c>
+      <c r="Q14">
+        <v>0.008762926075444445</v>
+      </c>
+      <c r="R14">
+        <v>0.07886633467900001</v>
+      </c>
+      <c r="S14">
+        <v>2.062808535728829E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.380224503725114E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.098429</v>
+      </c>
+      <c r="I15">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J15">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2539746666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.761924</v>
+      </c>
+      <c r="O15">
+        <v>0.04245453714464147</v>
+      </c>
+      <c r="P15">
+        <v>0.04551941790987798</v>
+      </c>
+      <c r="Q15">
+        <v>0.008332824155111112</v>
+      </c>
+      <c r="R15">
+        <v>0.07499541739600001</v>
+      </c>
+      <c r="S15">
+        <v>1.961561771251022E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.263398329332823E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03280966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.098429</v>
+      </c>
+      <c r="I16">
+        <v>0.000462038195015066</v>
+      </c>
+      <c r="J16">
+        <v>0.0004972379773867126</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.2083825</v>
+      </c>
+      <c r="N16">
+        <v>2.416765</v>
+      </c>
+      <c r="O16">
+        <v>0.2019938460969258</v>
+      </c>
+      <c r="P16">
+        <v>0.1443841328334141</v>
+      </c>
+      <c r="Q16">
+        <v>0.03964662703083333</v>
+      </c>
+      <c r="R16">
+        <v>0.237879762185</v>
+      </c>
+      <c r="S16">
+        <v>9.332887205477465E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.179327417682128E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.252188</v>
+      </c>
+      <c r="I17">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J17">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.005984666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.017954</v>
+      </c>
+      <c r="O17">
+        <v>0.5024819575990099</v>
+      </c>
+      <c r="P17">
+        <v>0.5387571684551946</v>
+      </c>
+      <c r="Q17">
+        <v>0.2526910870391111</v>
+      </c>
+      <c r="R17">
+        <v>2.274219783352</v>
+      </c>
+      <c r="S17">
+        <v>0.0005948393570357007</v>
+      </c>
+      <c r="T17">
+        <v>0.0006863706392877705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.252188</v>
+      </c>
+      <c r="I18">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J18">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.246848333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.740545</v>
+      </c>
+      <c r="O18">
+        <v>0.2084238147685372</v>
+      </c>
+      <c r="P18">
+        <v>0.2234703606471308</v>
+      </c>
+      <c r="Q18">
+        <v>0.1048133958288889</v>
+      </c>
+      <c r="R18">
+        <v>0.9433205624600001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002467326161525226</v>
+      </c>
+      <c r="T18">
+        <v>0.0002846987535015896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.6174303152208</v>
-      </c>
-      <c r="H13">
-        <v>11.6174303152208</v>
-      </c>
-      <c r="I13">
-        <v>0.1842852023178573</v>
-      </c>
-      <c r="J13">
-        <v>0.1842852023178573</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.488567310609296</v>
-      </c>
-      <c r="N13">
-        <v>0.488567310609296</v>
-      </c>
-      <c r="O13">
-        <v>0.1106031358195952</v>
-      </c>
-      <c r="P13">
-        <v>0.1106031358195952</v>
-      </c>
-      <c r="Q13">
-        <v>5.675896685298332</v>
-      </c>
-      <c r="R13">
-        <v>5.675896685298332</v>
-      </c>
-      <c r="S13">
-        <v>0.02038252126150355</v>
-      </c>
-      <c r="T13">
-        <v>0.02038252126150355</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.252188</v>
+      </c>
+      <c r="I19">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J19">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2670836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.801251</v>
+      </c>
+      <c r="O19">
+        <v>0.0446458443908856</v>
+      </c>
+      <c r="P19">
+        <v>0.04786892015438238</v>
+      </c>
+      <c r="Q19">
+        <v>0.02245176524311111</v>
+      </c>
+      <c r="R19">
+        <v>0.202065887188</v>
+      </c>
+      <c r="S19">
+        <v>5.285185859943533E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.098447176598655E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.252188</v>
+      </c>
+      <c r="I20">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J20">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2539746666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.761924</v>
+      </c>
+      <c r="O20">
+        <v>0.04245453714464147</v>
+      </c>
+      <c r="P20">
+        <v>0.04551941790987798</v>
+      </c>
+      <c r="Q20">
+        <v>0.02134978774577778</v>
+      </c>
+      <c r="R20">
+        <v>0.192148089712</v>
+      </c>
+      <c r="S20">
+        <v>5.025778378000922E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.79912320431769E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08406266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.252188</v>
+      </c>
+      <c r="I21">
+        <v>0.001183802419251028</v>
+      </c>
+      <c r="J21">
+        <v>0.00127398887564844</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.2083825</v>
+      </c>
+      <c r="N21">
+        <v>2.416765</v>
+      </c>
+      <c r="O21">
+        <v>0.2019938460969258</v>
+      </c>
+      <c r="P21">
+        <v>0.1443841328334141</v>
+      </c>
+      <c r="Q21">
+        <v>0.1015798553033333</v>
+      </c>
+      <c r="R21">
+        <v>0.60947913182</v>
+      </c>
+      <c r="S21">
+        <v>0.0002391208036833607</v>
+      </c>
+      <c r="T21">
+        <v>0.0001839437790499163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.0806785</v>
+      </c>
+      <c r="H22">
+        <v>30.161357</v>
+      </c>
+      <c r="I22">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J22">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.005984666666667</v>
+      </c>
+      <c r="N22">
+        <v>9.017954</v>
+      </c>
+      <c r="O22">
+        <v>0.5024819575990099</v>
+      </c>
+      <c r="P22">
+        <v>0.5387571684551946</v>
+      </c>
+      <c r="Q22">
+        <v>45.33228833392967</v>
+      </c>
+      <c r="R22">
+        <v>271.993730003578</v>
+      </c>
+      <c r="S22">
+        <v>0.1067130208725488</v>
+      </c>
+      <c r="T22">
+        <v>0.08208903629782809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.0806785</v>
+      </c>
+      <c r="H23">
+        <v>30.161357</v>
+      </c>
+      <c r="I23">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J23">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.246848333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.740545</v>
+      </c>
+      <c r="O23">
+        <v>0.2084238147685372</v>
+      </c>
+      <c r="P23">
+        <v>0.2234703606471308</v>
+      </c>
+      <c r="Q23">
+        <v>18.80331885326083</v>
+      </c>
+      <c r="R23">
+        <v>112.819913119565</v>
+      </c>
+      <c r="S23">
+        <v>0.04426335027432034</v>
+      </c>
+      <c r="T23">
+        <v>0.03404960086053437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.0806785</v>
+      </c>
+      <c r="H24">
+        <v>30.161357</v>
+      </c>
+      <c r="I24">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J24">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2670836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.801251</v>
+      </c>
+      <c r="O24">
+        <v>0.0446458443908856</v>
+      </c>
+      <c r="P24">
+        <v>0.04786892015438238</v>
+      </c>
+      <c r="Q24">
+        <v>4.027802909601167</v>
+      </c>
+      <c r="R24">
+        <v>24.166817457607</v>
+      </c>
+      <c r="S24">
+        <v>0.009481520385572007</v>
+      </c>
+      <c r="T24">
+        <v>0.007293663554135569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.0806785</v>
+      </c>
+      <c r="H25">
+        <v>30.161357</v>
+      </c>
+      <c r="I25">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J25">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.2539746666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.761924</v>
+      </c>
+      <c r="O25">
+        <v>0.04245453714464147</v>
+      </c>
+      <c r="P25">
+        <v>0.04551941790987798</v>
+      </c>
+      <c r="Q25">
+        <v>3.830110295144667</v>
+      </c>
+      <c r="R25">
+        <v>22.980661770868</v>
+      </c>
+      <c r="S25">
+        <v>0.009016148420727794</v>
+      </c>
+      <c r="T25">
+        <v>0.006935675973972186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.0806785</v>
+      </c>
+      <c r="H26">
+        <v>30.161357</v>
+      </c>
+      <c r="I26">
+        <v>0.2123718459115458</v>
+      </c>
+      <c r="J26">
+        <v>0.1523674135663124</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.2083825</v>
+      </c>
+      <c r="N26">
+        <v>2.416765</v>
+      </c>
+      <c r="O26">
+        <v>0.2019938460969258</v>
+      </c>
+      <c r="P26">
+        <v>0.1443841328334141</v>
+      </c>
+      <c r="Q26">
+        <v>18.22322798752625</v>
+      </c>
+      <c r="R26">
+        <v>72.892911950105</v>
+      </c>
+      <c r="S26">
+        <v>0.04289780595837683</v>
+      </c>
+      <c r="T26">
+        <v>0.0219994368798422</v>
       </c>
     </row>
   </sheetData>
